--- a/src/main/java/com/crm/qa/testdata/FreeCRMTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCRMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="3444"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16872" windowHeight="3444"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Ryna</t>
+  </si>
+  <si>
+    <t>Parul</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Ebn</t>
+  </si>
+  <si>
+    <t>Karlay</t>
+  </si>
+  <si>
+    <t>Bel</t>
+  </si>
   <si>
     <t>firstname</t>
   </si>
   <si>
     <t>lastname</t>
-  </si>
-  <si>
-    <t>Test21</t>
-  </si>
-  <si>
-    <t>Test22</t>
-  </si>
-  <si>
-    <t>Test23</t>
-  </si>
-  <si>
-    <t>Marve1</t>
-  </si>
-  <si>
-    <t>Marve2</t>
-  </si>
-  <si>
-    <t>Marve3</t>
   </si>
 </sst>
 </file>
@@ -79,14 +85,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="0"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -96,6 +105,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="firstname"/>
+    <tableColumn id="2" name="lastname"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,52 +381,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>